--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A3B952-5626-47D3-82CA-0F463169A815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B385F3-8C56-4186-B533-0BE07AEE36E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15</t>
-  </si>
-  <si>
-    <t>S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24</t>
+    <t>S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17</t>
+  </si>
+  <si>
+    <t>S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24</v>
+        <v>S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15</v>
+        <v>S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598B25AA-C4E4-4F00-8C6A-23A12E49D25D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12619215-C8C8-4CB5-9275-C8DB0E5CDD7C}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97993037-EBF1-47FC-BAB9-02CFD0D37BDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7007B-03A4-4118-B4C5-7704EE47C412}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N4">
-        <v>0.25383896237870601</v>
+        <v>5.6196606453970052E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>6.3366251517854258E-2</v>
+        <v>0.1215100097787425</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.64374644043026463</v>
+        <v>0.2538389623787059</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>6.1341729440462497E-2</v>
+        <v>0.64374644043026452</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>5.6196606453970052E-2</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>0.12151000977874252</v>
+        <v>6.134172944046249E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7881BECA-0263-4ED1-9D59-886855A90782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20EC0E3-82EF-474D-82B5-8D685F02D73C}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B385F3-8C56-4186-B533-0BE07AEE36E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C28598-7242-48B1-8D8B-7068BA33BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17</t>
-  </si>
-  <si>
-    <t>S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22</t>
+    <t>S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10</t>
+  </si>
+  <si>
+    <t>S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22</v>
+        <v>S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17</v>
+        <v>S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12619215-C8C8-4CB5-9275-C8DB0E5CDD7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF79752-B5B6-4FE9-A855-879F6C8BE2FD}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7007B-03A4-4118-B4C5-7704EE47C412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAC554D-910D-4D49-9C35-0F50267CB00C}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>5.6196606453970052E-2</v>
+        <v>0.12151000977874252</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N5">
-        <v>0.1215100097787425</v>
+        <v>5.6196606453970052E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N6">
-        <v>0.2538389623787059</v>
+        <v>0.64374644043026452</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.64374644043026452</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>6.3366251517854258E-2</v>
+        <v>0.25383896237870601</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7257,7 +7257,7 @@
         <v>80</v>
       </c>
       <c r="N9">
-        <v>6.134172944046249E-2</v>
+        <v>6.1341729440462497E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20EC0E3-82EF-474D-82B5-8D685F02D73C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE4EF9A-6568-464A-8A96-76982D6AE992}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C28598-7242-48B1-8D8B-7068BA33BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7CA52-B159-4256-AA21-D1C78C524CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10</t>
-  </si>
-  <si>
-    <t>S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20</t>
+    <t>S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15</t>
+  </si>
+  <si>
+    <t>S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20</v>
+        <v>S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10</v>
+        <v>S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF79752-B5B6-4FE9-A855-879F6C8BE2FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A0C2E-F4BF-47B8-B596-62F038292772}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAC554D-910D-4D49-9C35-0F50267CB00C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3493B1-5322-4FB2-8E4D-96DAEFD0E00F}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>0.12151000977874252</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.64374644043026452</v>
+        <v>0.12151000977874252</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>6.3366251517854258E-2</v>
+        <v>0.25383896237870596</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.25383896237870601</v>
+        <v>6.1341729440462497E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>6.1341729440462497E-2</v>
+        <v>0.64374644043026463</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE4EF9A-6568-464A-8A96-76982D6AE992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE96094B-DF3E-4C4B-B99B-43C926D54F82}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7CA52-B159-4256-AA21-D1C78C524CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464277C-D979-4CC5-965D-D274D4CC1EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15</t>
-  </si>
-  <si>
-    <t>S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24</t>
+    <t>S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13</t>
+  </si>
+  <si>
+    <t>S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24</v>
+        <v>S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15</v>
+        <v>S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A0C2E-F4BF-47B8-B596-62F038292772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B34147D-4594-4EED-8B27-0048657B6826}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3493B1-5322-4FB2-8E4D-96DAEFD0E00F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54BD62-1243-4C50-A9F8-595E8EA4E6A7}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>6.3366251517854258E-2</v>
+        <v>0.12151000977874252</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>5.6196606453970052E-2</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>0.12151000977874252</v>
+        <v>5.6196606453970052E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.25383896237870596</v>
+        <v>6.1341729440462497E-2</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>6.1341729440462497E-2</v>
+        <v>0.25383896237870596</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE96094B-DF3E-4C4B-B99B-43C926D54F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D9FE9B-4BA8-454E-B6D8-1C7086BF8E36}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464277C-D979-4CC5-965D-D274D4CC1EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C949D2BB-DEF5-4F28-A1B5-4689F9C1E3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13</t>
-  </si>
-  <si>
-    <t>S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23</t>
+    <t>S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4</t>
+  </si>
+  <si>
+    <t>S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23</v>
+        <v>S1b0119h06,S1b0119h21,S2aH8,S2c0205h24,S3e0301h05,S3e0301h20,S4g0615h06,S4g0615h22,S5h0710h01,S5h0710h22,S5i0731h01,S5j0806h22,S5k0809h05,S5k0809h22,S6n1212h23,S1b0119h01,S1b0119h24,S3aH8,S3e0301h04,S5h0710h05,S5i0731h24,S5j0806h23,S5k0809h20,S5l1014h22,S5m1102h19,S6n1212h03,S2c0205h21,S2d0217h23,S4g0615h24,S5j0806h03,S5k0809h02,S5l1014h04,S5m1102h02,S5m1102h06,S5m1102h24,S6aH8,S6n1212h05,S2c0205h22,S3aH1,S3f0330h19,S5i0731h19,S5i0731h23,S5j0806h21,S5m1102h22,S6o1213h06,S6p1221h02,S6p1221h06,S6p1221h23,S1b0119h02,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S3e0301h23,S4g0615h03,S4g0615h04,S4g0615h21,S5aH8,S5l1014h19,S5l1014h21,S6o1213h04,S6p1221h04,S2c0205h06,S2d0217h01,S3e0301h22,S4g0615h05,S5h0710h02,S5h0710h19,S5i0731h06,S5m1102h04,S5m1102h20,S6o1213h01,S6o1213h03,S6p1221h03,S1b0119h03,S1b0119h04,S2c0205h05,S2d0217h04,S2d0217h24,S3f0330h23,S4g0615h01,S4g0615h20,S5i0731h04,S5k0809h04,S5k0809h19,S5k0809h21,S5l1014h01,S5l1014h03,S5l1014h05,S5l1014h24,S5m1102h03,S6n1212h06,S6p1221h22,S2d0217h19,S3e0301h06,S4aH1,S5j0806h05,S5k0809h01,S6aH1,S6o1213h20,S6o1213h21,S6p1221h19,S6p1221h24,S1aH1,S2c0205h23,S3f0330h03,S3f0330h05,S5i0731h02,S5j0806h20,S5j0806h24,S5k0809h03,S5k0809h23,S5l1014h20,S5m1102h23,S6n1212h04,S6o1213h19,S2d0217h21,S3f0330h04,S3f0330h21,S4g0615h02,S5h0710h04,S5i0731h05,S5j0806h04,S5j0806h06,S5k0809h06,S6o1213h02,S6p1221h01,S6p1221h21,S2d0217h20,S3e0301h24,S3f0330h20,S3f0330h24,S4aH8,S5h0710h03,S5h0710h20,S5j0806h02,S5k0809h24,S5l1014h06,S5m1102h01,S6n1212h19,S6n1212h20,S6o1213h23,S1aH8,S1b0119h05,S1b0119h20,S2c0205h02,S2d0217h02,S3e0301h01,S3e0301h21,S3f0330h06,S5aH1,S5h0710h24,S5i0731h03,S5i0731h21,S5m1102h21,S6n1212h22,S6o1213h22,S1b0119h23,S2d0217h03,S3e0301h02,S4g0615h23,S5l1014h23,S6o1213h05,S1b0119h19,S2c0205h04,S2c0205h19,S2c0205h20,S3e0301h19,S5i0731h20,S5i0731h22,S5j0806h19,S6p1221h05,S6p1221h20,S1b0119h22,S2c0205h01,S2c0205h03,S3e0301h03,S3f0330h01,S3f0330h02,S3f0330h22,S4g0615h19,S5h0710h06,S5h0710h21,S5h0710h23,S5m1102h05,S6n1212h01,S6n1212h24,S6o1213h24,S5j0806h01,S5l1014h02,S6n1212h02,S6n1212h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13</v>
+        <v>S2c0205h07,S2c0205h14,S2d0217h09,S2d0217h16,S3aH7,S4g0615h12,S5h0710h13,S5k0809h10,S5l1014h16,S5m1102h07,S6o1213h12,S6p1221h12,S1b0119h15,S2c0205h18,S3aH2,S3e0301h18,S5h0710h18,S5j0806h17,S5k0809h18,S6n1212h08,S6o1213h10,S6o1213h14,S6p1221h08,S1aH6,S5h0710h09,S5j0806h07,S5j0806h10,S5j0806h18,S5k0809h13,S5m1102h11,S6n1212h11,S6p1221h18,S1b0119h12,S1b0119h13,S2c0205h10,S2d0217h11,S3e0301h12,S3e0301h15,S5i0731h12,S5i0731h17,S5k0809h09,S6aH7,S1b0119h10,S1b0119h17,S2c0205h11,S2d0217h07,S2d0217h15,S3e0301h07,S4aH2,S5i0731h09,S5i0731h11,S5i0731h15,S5j0806h13,S5j0806h16,S5m1102h10,S5m1102h16,S6n1212h09,S6o1213h09,S6o1213h17,S3aH3,S3e0301h11,S4g0615h17,S5j0806h09,S5l1014h11,S5l1014h12,S6o1213h11,S6p1221h11,S1aH3,S2c0205h15,S2d0217h13,S3f0330h12,S4g0615h07,S5h0710h17,S5j0806h12,S6n1212h15,S6o1213h16,S6p1221h13,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S2d0217h10,S2d0217h14,S3e0301h10,S4aH6,S5h0710h10,S5i0731h14,S5k0809h16,S5l1014h13,S5m1102h17,S6n1212h16,S6n1212h17,S6n1212h18,S6p1221h14,S1b0119h07,S1b0119h09,S1b0119h16,S2c0205h12,S3e0301h08,S3f0330h09,S5i0731h10,S6n1212h10,S6p1221h09,S1aH2,S1aH7,S1b0119h11,S2aH3,S2d0217h17,S3aH6,S3e0301h13,S3f0330h14,S3f0330h15,S4aH7,S5aH6,S5aH7,S5h0710h07,S5h0710h12,S5j0806h08,S5j0806h11,S5k0809h14,S5l1014h18,S6aH6,S6n1212h14,S3e0301h14,S3f0330h13,S3f0330h16,S4g0615h09,S4g0615h11,S5h0710h11,S5h0710h15,S5j0806h14,S5k0809h15,S5l1014h09,S5m1102h08,S5m1102h13,S5m1102h14,S6aH5,S6o1213h13,S2aH6,S3aH5,S3e0301h16,S3e0301h17,S3f0330h17,S3f0330h18,S5aH3,S5i0731h13,S5k0809h12,S5l1014h15,S5m1102h12,S5m1102h18,S6n1212h07,S6n1212h13,S6o1213h18,S6p1221h07,S6p1221h15,S6p1221h16,S6p1221h17,S2c0205h08,S3e0301h09,S3f0330h08,S4aH5,S4g0615h08,S4g0615h16,S5j0806h15,S5k0809h11,S5k0809h17,S5m1102h15,S6o1213h08,S1b0119h14,S1b0119h18,S2aH7,S2c0205h16,S2d0217h18,S3aH4,S3f0330h10,S4aH3,S4aH4,S4g0615h15,S5i0731h07,S5i0731h08,S5i0731h16,S5i0731h18,S5l1014h08,S6p1221h10,S1aH5,S2aH4,S2aH5,S2d0217h08,S4g0615h10,S4g0615h13,S4g0615h14,S4g0615h18,S5aH2,S5aH5,S5h0710h14,S5h0710h16,S5k0809h07,S5l1014h14,S6aH2,S6n1212h12,S6o1213h07,S6o1213h15,S1b0119h08,S2d0217h12,S3f0330h07,S3f0330h11,S5aH4,S5h0710h08,S5k0809h08,S5l1014h07,S5l1014h10,S5l1014h17,S5m1102h09,S6aH3,S6aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B34147D-4594-4EED-8B27-0048657B6826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EE409D-7B88-4807-9CBB-AA41351E94AA}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54BD62-1243-4C50-A9F8-595E8EA4E6A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA823FC-946E-4CF7-B96D-BCFA2CF41EA3}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7082,7 +7082,7 @@
         <v>84</v>
       </c>
       <c r="N4">
-        <v>0.12151000977874252</v>
+        <v>0.1215100097787425</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>6.3366251517854258E-2</v>
+        <v>0.64374644043026452</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>6.1341729440462497E-2</v>
+        <v>0.25383896237870596</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.25383896237870596</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>0.64374644043026463</v>
+        <v>6.134172944046249E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D9FE9B-4BA8-454E-B6D8-1C7086BF8E36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD78B374-140F-4C5E-AFC2-4EE9BB19C0BA}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
